--- a/Data/Output/Purchases.xlsx
+++ b/Data/Output/Purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haroldas\Documents\UiPath\TransactionalProcess\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3DE393C-C16E-4856-BECF-EAAF9F167D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBF0C6E-C7FE-4317-A04A-6BC1A6551080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="705" windowWidth="38700" windowHeight="15345" xr2:uid="{4BA3CE07-E8DF-4011-B7F3-0878D94DCAFB}"/>
   </bookViews>
@@ -64,8 +64,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#.00[$$]"/>
-    <numFmt numFmtId="167" formatCode="#.00[$€]"/>
+    <numFmt numFmtId="166" formatCode="#.00[$€]"/>
+    <numFmt numFmtId="167" formatCode="#.00[$$]"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -476,11 +476,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>250</v>
       </c>
-      <c r="D2" s="3">
-        <v>276.33249999999998</v>
+      <c r="D2" s="4">
+        <v>277.41500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,11 +490,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>150</v>
       </c>
-      <c r="D3" s="3">
-        <v>165.79949999999999</v>
+      <c r="D3" s="4">
+        <v>166.44900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,11 +504,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>89.55</v>
       </c>
-      <c r="D4" s="3">
-        <v>98.982301499999906</v>
+      <c r="D4" s="4">
+        <v>99.370052999999999</v>
       </c>
     </row>
   </sheetData>
